--- a/biology/Médecine/Dermohypodermite_bactérienne_nécrosante/Dermohypodermite_bactérienne_nécrosante.xlsx
+++ b/biology/Médecine/Dermohypodermite_bactérienne_nécrosante/Dermohypodermite_bactérienne_nécrosante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dermohypodermite_bact%C3%A9rienne_n%C3%A9crosante</t>
+          <t>Dermohypodermite_bactérienne_nécrosante</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dermohypodermite bactérienne nécrosante est une infection grave atteignant de façon variable le derme, l'hypoderme et les muscles. Contrairement à la fasciite nécrosante, les fascias ne sont pas atteints[1]. Le streptocoque du groupe A est le germe le plus fréquemment isolé même s'il existe souvent une infection plurimicrobienne. L'évolution peut être fatale par extension locale et septicémie. Le traitement est médicochirurgical, associant réanimation, antibiothérapie et mise à plat chirurgicale des zones nécrosées et infectées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dermohypodermite bactérienne nécrosante est une infection grave atteignant de façon variable le derme, l'hypoderme et les muscles. Contrairement à la fasciite nécrosante, les fascias ne sont pas atteints. Le streptocoque du groupe A est le germe le plus fréquemment isolé même s'il existe souvent une infection plurimicrobienne. L'évolution peut être fatale par extension locale et septicémie. Le traitement est médicochirurgical, associant réanimation, antibiothérapie et mise à plat chirurgicale des zones nécrosées et infectées.
 </t>
         </is>
       </c>
